--- a/测试单-电子书_txt-word_170208.xlsx
+++ b/测试单-电子书_txt-word_170208.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="915">
   <si>
     <t>编号</t>
   </si>
@@ -5686,10 +5686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我这边还是不能复现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5904,6 +5900,10 @@
   </si>
   <si>
     <t>新增编号310~记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8332,7 +8332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -8823,7 +8823,7 @@
         <v>42754</v>
       </c>
       <c r="F28" s="189" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="2:7" s="234" customFormat="1">
@@ -8840,7 +8840,7 @@
         <v>42773</v>
       </c>
       <c r="F29" s="227" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30" spans="2:7" s="234" customFormat="1">
@@ -8857,7 +8857,7 @@
         <v>42774</v>
       </c>
       <c r="F30" s="227" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -9455,11 +9455,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P312"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A312" sqref="A312"/>
+      <selection pane="bottomRight" activeCell="O303" sqref="O303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16485,29 +16485,29 @@
         <v>42645</v>
       </c>
       <c r="F177" s="285" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G177" s="298" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H177" s="287"/>
       <c r="I177" s="287" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K177" s="296">
         <v>42774</v>
       </c>
       <c r="L177" s="287" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N177" s="302" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O177" s="296">
         <v>42774</v>
       </c>
       <c r="P177" s="302" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="108" hidden="1" customHeight="1">
@@ -21450,10 +21450,10 @@
         <v>617</v>
       </c>
       <c r="G299" s="301" t="s">
+        <v>900</v>
+      </c>
+      <c r="I299" s="302" t="s">
         <v>901</v>
-      </c>
-      <c r="I299" s="302" t="s">
-        <v>902</v>
       </c>
       <c r="K299" s="296">
         <v>42774</v>
@@ -21485,13 +21485,13 @@
         <v>42750</v>
       </c>
       <c r="F300" s="285" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G300" s="301" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I300" s="302" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K300" s="296"/>
       <c r="L300" s="302" t="s">
@@ -21606,13 +21606,10 @@
         <v>87</v>
       </c>
       <c r="L303" s="302" t="s">
-        <v>884</v>
-      </c>
-      <c r="N303" s="302" t="s">
-        <v>887</v>
+        <v>914</v>
       </c>
       <c r="O303" s="296">
-        <v>42774</v>
+        <v>42777</v>
       </c>
       <c r="P303" s="302" t="s">
         <v>882</v>
@@ -21635,19 +21632,19 @@
         <v>42750</v>
       </c>
       <c r="F304" s="285" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G304" s="301" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I304" s="302" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L304" s="302" t="s">
         <v>884</v>
       </c>
       <c r="N304" s="302" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O304" s="296">
         <v>42774</v>
@@ -21676,10 +21673,10 @@
         <v>686</v>
       </c>
       <c r="G305" s="310" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I305" s="302" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K305" s="296">
         <v>42774</v>
@@ -21711,10 +21708,10 @@
         <v>42750</v>
       </c>
       <c r="F306" s="300" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G306" s="312" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H306" s="311" t="s">
         <v>446</v>
@@ -21855,13 +21852,13 @@
         <v>654</v>
       </c>
       <c r="G310" s="297" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H310" s="311" t="s">
         <v>650</v>
       </c>
       <c r="I310" s="302" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K310" s="296">
         <v>42773</v>
@@ -21896,13 +21893,13 @@
         <v>273</v>
       </c>
       <c r="G311" s="298" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H311" s="302" t="s">
         <v>87</v>
       </c>
       <c r="I311" s="302" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K311" s="296">
         <v>42774</v>
@@ -21934,10 +21931,10 @@
         <v>42774</v>
       </c>
       <c r="F312" s="300" t="s">
+        <v>902</v>
+      </c>
+      <c r="G312" s="310" t="s">
         <v>903</v>
-      </c>
-      <c r="G312" s="310" t="s">
-        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -26549,10 +26546,10 @@
         <v>617</v>
       </c>
       <c r="G39" s="301" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I39" s="302" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K39" s="296">
         <v>42774</v>
